--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -61,40 +61,55 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>pie</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
@@ -103,22 +118,10 @@
     <t>perfectly</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>family</t>
   </si>
   <si>
     <t>ever</t>
@@ -127,10 +130,16 @@
     <t>gift</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>easy</t>
@@ -139,13 +148,10 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
@@ -166,25 +172,22 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>bought</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
+    <t>little</t>
   </si>
   <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
   </si>
   <si>
     <t>one</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3643410852713178</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -749,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +778,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,10 +807,10 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -853,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -879,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6983050847457627</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -905,13 +908,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -923,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -931,13 +934,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6619718309859155</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -957,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6573033707865169</v>
+        <v>0.6476725521669342</v>
       </c>
       <c r="L14">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="M14">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -983,13 +986,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1009,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6176470588235294</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1027,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1035,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.578125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1061,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5600000000000001</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1087,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5449101796407185</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1105,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1113,13 +1116,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5263157894736842</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1131,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1139,13 +1142,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5213675213675214</v>
+        <v>0.53125</v>
       </c>
       <c r="L21">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1157,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1165,13 +1168,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5138888888888888</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1191,13 +1194,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5096153846153846</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1217,13 +1220,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.4923076923076923</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1243,13 +1246,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.49</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1261,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1269,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4578313253012048</v>
+        <v>0.46</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1295,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4210526315789473</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1321,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4036144578313253</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1339,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1347,13 +1350,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.3799019607843137</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L29">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="M29">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>253</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1373,13 +1376,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3657587548638132</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M30">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1399,13 +1402,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3232876712328767</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L31">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="M31">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>494</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1425,13 +1428,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3093525179856115</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1451,13 +1454,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3082706766917293</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1477,13 +1480,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.291866028708134</v>
+        <v>0.2972602739726027</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1495,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>148</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1503,13 +1506,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2702702702702703</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1529,13 +1532,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2582781456953642</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1555,13 +1558,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2443487621097955</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L37">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>702</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1581,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1986754966887417</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L38">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1599,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>605</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1607,13 +1610,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1912225705329154</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L39">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="M39">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1625,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>258</v>
+        <v>708</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1633,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.180306905370844</v>
+        <v>0.2079470198675497</v>
       </c>
       <c r="L40">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M40">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>641</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1659,25 +1662,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1351351351351351</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>320</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1685,13 +1688,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1340909090909091</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="M42">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>381</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1711,25 +1714,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1143911439114391</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>240</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1737,13 +1740,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1140350877192982</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1755,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>404</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1763,13 +1766,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>240</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1789,25 +1792,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1100478468899522</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1815,13 +1818,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1030927835051546</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1833,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>261</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1841,13 +1844,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1021897810218978</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>369</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1867,13 +1870,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.06529850746268656</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1002</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1893,25 +1896,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.06025824964131994</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>655</v>
+        <v>992</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1919,25 +1922,51 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.04155844155844156</v>
+        <v>0.05595408895265423</v>
       </c>
       <c r="L51">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1107</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>0.0372940156114484</v>
+      </c>
+      <c r="L52">
+        <v>43</v>
+      </c>
+      <c r="M52">
+        <v>47</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
